--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>24.91455780728133</v>
+        <v>0.1899020381013333</v>
       </c>
       <c r="R2">
-        <v>224.231020265532</v>
+        <v>1.709118342912</v>
       </c>
       <c r="S2">
-        <v>0.1192011590592676</v>
+        <v>0.0007784769330334199</v>
       </c>
       <c r="T2">
-        <v>0.1192011590592676</v>
+        <v>0.0007784769330334199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,75 +584,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>0.3664420394823333</v>
+        <v>10.45186677188267</v>
       </c>
       <c r="R3">
-        <v>3.297978355340999</v>
+        <v>94.06680094694397</v>
       </c>
       <c r="S3">
-        <v>0.001753204538977222</v>
+        <v>0.04284597085107324</v>
       </c>
       <c r="T3">
-        <v>0.001753204538977222</v>
+        <v>0.04284597085107324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.05317333333333</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>63.15952</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.3859970617919927</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.3859970617919927</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>79.5088810636089</v>
+        <v>0.8392739817599999</v>
       </c>
       <c r="R4">
-        <v>715.5799295724801</v>
+        <v>7.553465835839999</v>
       </c>
       <c r="S4">
-        <v>0.3804021268046665</v>
+        <v>0.003440486694232503</v>
       </c>
       <c r="T4">
-        <v>0.3804021268046665</v>
+        <v>0.003440486694232503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +729,10 @@
         <v>63.15952</v>
       </c>
       <c r="I5">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J5">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,39 +741,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05554566666666666</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N5">
-        <v>0.166637</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q5">
-        <v>1.169412548248889</v>
+        <v>1.444612612337778</v>
       </c>
       <c r="R5">
-        <v>10.52471293424</v>
+        <v>13.00151351104</v>
       </c>
       <c r="S5">
-        <v>0.005594934987326188</v>
+        <v>0.00592198802665833</v>
       </c>
       <c r="T5">
-        <v>0.005594934987326188</v>
+        <v>0.00592198802665833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.89201066666667</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H6">
-        <v>80.67603200000001</v>
+        <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.4930485746097625</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.4930485746097625</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,39 +803,39 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.776574666666667</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N6">
         <v>11.329724</v>
       </c>
       <c r="O6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q6">
-        <v>101.5596862194631</v>
+        <v>79.50888106360888</v>
       </c>
       <c r="R6">
-        <v>914.0371759751681</v>
+        <v>715.57992957248</v>
       </c>
       <c r="S6">
-        <v>0.4859019535766158</v>
+        <v>0.3259355744580744</v>
       </c>
       <c r="T6">
-        <v>0.4859019535766158</v>
+        <v>0.3259355744580744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,46 +847,418 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.89201066666667</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H7">
-        <v>80.67603200000001</v>
+        <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.4930485746097625</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.4930485746097625</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.303255</v>
+      </c>
+      <c r="N7">
+        <v>0.909765</v>
+      </c>
+      <c r="O7">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P7">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q7">
+        <v>6.3844800792</v>
+      </c>
+      <c r="R7">
+        <v>57.46032071280001</v>
+      </c>
+      <c r="S7">
+        <v>0.02617228609424643</v>
+      </c>
+      <c r="T7">
+        <v>0.02617228609424643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H8">
+        <v>104.932238</v>
+      </c>
+      <c r="I8">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J8">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.166637</v>
-      </c>
-      <c r="O7">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P7">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q7">
-        <v>1.493734660487111</v>
-      </c>
-      <c r="R7">
-        <v>13.443611944384</v>
-      </c>
-      <c r="S7">
-        <v>0.00714662103314666</v>
-      </c>
-      <c r="T7">
-        <v>0.00714662103314666</v>
+      <c r="M8">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.205852</v>
+      </c>
+      <c r="O8">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P8">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q8">
+        <v>2.400056784086223</v>
+      </c>
+      <c r="R8">
+        <v>21.600511056776</v>
+      </c>
+      <c r="S8">
+        <v>0.009838698220734774</v>
+      </c>
+      <c r="T8">
+        <v>0.009838698220734774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H9">
+        <v>104.932238</v>
+      </c>
+      <c r="I9">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J9">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.329724</v>
+      </c>
+      <c r="O9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q9">
+        <v>132.0948105824791</v>
+      </c>
+      <c r="R9">
+        <v>1188.853295242312</v>
+      </c>
+      <c r="S9">
+        <v>0.5415042620922608</v>
+      </c>
+      <c r="T9">
+        <v>0.5415042620922608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H10">
+        <v>104.932238</v>
+      </c>
+      <c r="I10">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J10">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.303255</v>
+      </c>
+      <c r="N10">
+        <v>0.909765</v>
+      </c>
+      <c r="O10">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P10">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q10">
+        <v>10.60707527823</v>
+      </c>
+      <c r="R10">
+        <v>95.46367750407002</v>
+      </c>
+      <c r="S10">
+        <v>0.04348222648692639</v>
+      </c>
+      <c r="T10">
+        <v>0.04348222648692639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.004706</v>
+      </c>
+      <c r="H11">
+        <v>0.014118</v>
+      </c>
+      <c r="I11">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J11">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q11">
+        <v>0.0003229131706666667</v>
+      </c>
+      <c r="R11">
+        <v>0.002906218536</v>
+      </c>
+      <c r="S11">
+        <v>1.323737529359981E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.323737529359981E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.004706</v>
+      </c>
+      <c r="H12">
+        <v>0.014118</v>
+      </c>
+      <c r="I12">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J12">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.329724</v>
+      </c>
+      <c r="O12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q12">
+        <v>0.01777256038133333</v>
+      </c>
+      <c r="R12">
+        <v>0.159953043432</v>
+      </c>
+      <c r="S12">
+        <v>7.285613380530907E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.285613380530907E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004706</v>
+      </c>
+      <c r="H13">
+        <v>0.014118</v>
+      </c>
+      <c r="I13">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303255</v>
+      </c>
+      <c r="N13">
+        <v>0.909765</v>
+      </c>
+      <c r="O13">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P13">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q13">
+        <v>0.00142711803</v>
+      </c>
+      <c r="R13">
+        <v>0.01284406227</v>
+      </c>
+      <c r="S13">
+        <v>5.850271425092703E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.850271425092704E-06</v>
       </c>
     </row>
   </sheetData>
